--- a/data/Registration.xlsx
+++ b/data/Registration.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Form Responses 1'!$A$1:$N$109</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Form Responses 1'!$A$1:$N$112</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="664">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1966,6 +1966,45 @@
   </si>
   <si>
     <t>25Z362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swetha </t>
+  </si>
+  <si>
+    <t>24z277</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alamelu </t>
+  </si>
+  <si>
+    <t>24z208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prithikka </t>
+  </si>
+  <si>
+    <t>24z257</t>
+  </si>
+  <si>
+    <t>Ahamed Shalman H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAVEENA A S </t>
+  </si>
+  <si>
+    <t>24PT20</t>
+  </si>
+  <si>
+    <t>24PT31</t>
+  </si>
+  <si>
+    <t>SAKTHI DHEEKSHANYA J</t>
+  </si>
+  <si>
+    <t>GOMATHI S</t>
+  </si>
+  <si>
+    <t>24PD12</t>
   </si>
 </sst>
 </file>
@@ -2129,10 +2168,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2140,13 +2179,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2154,13 +2193,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2289,8 +2328,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N109" displayName="Form_Responses" name="Form_Responses" id="1">
-  <autoFilter ref="$A$1:$N$109"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:N112" displayName="Form_Responses" name="Form_Responses" id="1">
+  <autoFilter ref="$A$1:$N$112"/>
   <tableColumns count="14">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -6960,52 +6999,172 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="16">
+      <c r="A109" s="7">
         <v>45945.66266729167</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="8" t="s">
         <v>646</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="C109" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D109" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E109" s="17" t="s">
+      <c r="D109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="F109" s="17" t="s">
+      <c r="F109" s="8" t="s">
         <v>647</v>
       </c>
-      <c r="G109" s="17" t="s">
+      <c r="G109" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H109" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I109" s="17" t="s">
+      <c r="H109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="J109" s="17" t="s">
+      <c r="J109" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="K109" s="17" t="s">
+      <c r="K109" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="L109" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="M109" s="17" t="s">
+      <c r="L109" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M109" s="8" t="s">
         <v>648</v>
       </c>
-      <c r="N109" s="19" t="s">
+      <c r="N109" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="10">
+        <v>45945.67691877315</v>
+      </c>
+      <c r="B110" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>653</v>
+      </c>
+      <c r="G110" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="H110" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I110" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="11" t="s">
+        <v>655</v>
+      </c>
+      <c r="K110" s="11" t="s">
+        <v>656</v>
+      </c>
+      <c r="L110" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M110" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N110" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="7">
+        <v>45945.69303981481</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="H111" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I111" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N111" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="16">
+        <v>45945.696021296295</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F112" s="17" t="s">
+        <v>660</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>661</v>
+      </c>
+      <c r="H112" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I112" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J112" s="17" t="s">
+        <v>662</v>
+      </c>
+      <c r="K112" s="17" t="s">
+        <v>663</v>
+      </c>
+      <c r="L112" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M112" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N112" s="19" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C109"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="C2:C112"/>
   </dataValidations>
   <drawing r:id="rId1"/>
   <tableParts count="1">
